--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\BTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\EPS India\eps-1.4.2-india-v3\eps-1.4.2-india-v3_working folder\InputData\elec\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23810FAE-5C73-4517-9923-7D38BE4DAC38}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="90" windowWidth="17220" windowHeight="8205" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calcs" sheetId="4" r:id="rId2"/>
     <sheet name="BTC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>BTC BAU Transmission Capacity</t>
   </si>
@@ -32,18 +41,6 @@
     <t>http://www.cea.nic.in/reports/others/ps/pspa2/ptp.pdf</t>
   </si>
   <si>
-    <t>2017 Transmission Circuit KM</t>
-  </si>
-  <si>
-    <t>Forecasted future MW growth</t>
-  </si>
-  <si>
-    <t>Projected Future Transmission</t>
-  </si>
-  <si>
-    <t>Linearly Extraploated Growth Rate Relative to 2017</t>
-  </si>
-  <si>
     <t>BAU Transmission Capacity (circuit*km)</t>
   </si>
   <si>
@@ -53,24 +50,12 @@
     <t>Ministry of Power</t>
   </si>
   <si>
-    <t>Growth in Transmission Sector</t>
-  </si>
-  <si>
-    <t>https://powermin.nic.in/sites/default/files/uploads/Growth_in_Transmission_sector_Eng.pdf</t>
-  </si>
-  <si>
     <t>Forecasted Transmission Growth Rate</t>
   </si>
   <si>
-    <t>20-Year (2016-2036) Persepective Transmission Plan Report</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>We take the existing transmission in cicruit*km and scale it in the future based</t>
-  </si>
-  <si>
     <t>on the forecasted growth rate of transmission MW from the Transmission Plan</t>
   </si>
   <si>
@@ -78,16 +63,83 @@
   </si>
   <si>
     <t>preceding period drops significantly.</t>
+  </si>
+  <si>
+    <t>CEA</t>
+  </si>
+  <si>
+    <t>Transmission reports - Growth Summary</t>
+  </si>
+  <si>
+    <t>(Sec 4.3, pp 17 of Transmission Plan report)</t>
+  </si>
+  <si>
+    <t>Cumulative Projected Future Transmission (MW)</t>
+  </si>
+  <si>
+    <t>Additional transmission requirement (MW) 
+beyond 2022</t>
+  </si>
+  <si>
+    <t>(Sec 11.3, pp 35 of Transmission Plan report)</t>
+  </si>
+  <si>
+    <t>Linearly Extraploated Growth Rate Relative to 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Transmission Capacity in ckms in 2022 </t>
+  </si>
+  <si>
+    <t>National Electricity Plan (Volume-II : Transmission)</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/others/ps/pspa2/nep_transmission.pdf</t>
+  </si>
+  <si>
+    <t>Sec 7.7, pp 347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For 2022, we use the expected transmission capacity in ckms from NEP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaling factors estimated using the Transmission Plan </t>
+  </si>
+  <si>
+    <t>Ckms</t>
+  </si>
+  <si>
+    <t>&lt;-- expected, NEP Vol II - Sec 7.7, pp 347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-- Actual, CEA </t>
+  </si>
+  <si>
+    <t>Interpolated ckm values from 2019-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The capacity (in ckms) is interpolated between 2019-22, and then scaled till 2036 based on the </t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/monthly/transmission/2018/growth_summary_tx-12.pdf</t>
+  </si>
+  <si>
+    <t>We take the existing transmission (2018 value) in cicruit*km and scale it in the future based</t>
+  </si>
+  <si>
+    <t>2018 Transmission Circuit KM</t>
+  </si>
+  <si>
+    <t>20-Year (2016-2036) Perspective Transmission Plan Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +169,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -152,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -166,6 +224,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -260,6 +326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -295,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,169 +570,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>43435</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{0A69D30B-CC93-4B37-9F47-84DB28E9ADFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>381671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>405944</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+      <c r="H2">
+        <f>A2</f>
+        <v>405944</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2022</v>
+      </c>
+      <c r="H3">
+        <v>478132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2026</v>
       </c>
       <c r="B6">
         <v>13400</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2031</v>
       </c>
       <c r="B7">
         <v>26000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7">
+        <v>2020</v>
+      </c>
+      <c r="I7">
+        <v>2021</v>
+      </c>
+      <c r="J7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2035</v>
       </c>
       <c r="B8">
         <v>28500</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>H2</f>
+        <v>405944</v>
+      </c>
+      <c r="H8">
+        <f>FORECAST(H7,$H$2:$H$3,$G$2:$G$3)</f>
+        <v>442038</v>
+      </c>
+      <c r="I8">
+        <f>FORECAST(I7,$H$2:$H$3,$G$2:$G$3)</f>
+        <v>460085</v>
+      </c>
+      <c r="J8">
+        <f>H3</f>
+        <v>478132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -640,7 +837,7 @@
         <v>55350</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -648,7 +845,7 @@
         <v>72250</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -656,7 +853,7 @@
         <v>91250</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2026</v>
       </c>
@@ -665,7 +862,7 @@
         <v>104650</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -674,7 +871,7 @@
         <v>117250</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2035</v>
       </c>
@@ -685,7 +882,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +899,7 @@
         <v>2018</v>
       </c>
       <c r="B20" s="6">
-        <f t="shared" ref="B20:B25" si="0">TREND($B$12:$B$13,$A$12:$A$13,A20)/$B$12</f>
+        <f t="shared" ref="B20:B24" si="0">TREND($B$12:$B$13,$A$12:$A$13,A20)/$B$12</f>
         <v>1.0525951557093425</v>
       </c>
     </row>
@@ -756,7 +953,7 @@
         <v>2024</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" ref="B26:B29" si="1">TREND($B$13:$B$14,$A$13:$A$14,A26)/$B$12</f>
+        <f t="shared" ref="B26:B28" si="1">TREND($B$13:$B$14,$A$13:$A$14,A26)/$B$12</f>
         <v>1.3557093425605535</v>
       </c>
     </row>
@@ -792,7 +989,7 @@
         <v>2028</v>
       </c>
       <c r="B30" s="6">
-        <f t="shared" ref="B30:B34" si="2">TREND($B$14:$B$15,$A$14:$A$15,A30)/$B$12</f>
+        <f t="shared" ref="B30:B33" si="2">TREND($B$14:$B$15,$A$14:$A$15,A30)/$B$12</f>
         <v>1.5182006920415225</v>
       </c>
     </row>
@@ -1000,20 +1197,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -1125,149 +1324,160 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
         <f>Calcs!A2</f>
-        <v>381671</v>
-      </c>
-      <c r="C2" s="4">
+        <v>405944</v>
+      </c>
+      <c r="C2" s="11">
         <f>Calcs!A2</f>
-        <v>381671</v>
-      </c>
-      <c r="D2" s="4">
-        <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(D1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>401745.04567474045</v>
-      </c>
-      <c r="E2" s="4">
-        <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(E1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>421819.09134948096</v>
-      </c>
-      <c r="F2" s="4">
-        <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(F1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>441893.13702422142</v>
-      </c>
-      <c r="G2" s="4">
-        <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(G1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>461967.18269896187</v>
-      </c>
-      <c r="H2" s="4">
-        <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(H1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>482041.22837370244</v>
-      </c>
-      <c r="I2" s="4">
+        <v>405944</v>
+      </c>
+      <c r="D2" s="11">
+        <f>C2</f>
+        <v>405944</v>
+      </c>
+      <c r="E2" s="11">
+        <f>D2</f>
+        <v>405944</v>
+      </c>
+      <c r="F2" s="11">
+        <f>Calcs!H8</f>
+        <v>442038</v>
+      </c>
+      <c r="G2" s="11">
+        <f>Calcs!I8</f>
+        <v>460085</v>
+      </c>
+      <c r="H2" s="11">
+        <f>Calcs!J8</f>
+        <v>478132</v>
+      </c>
+      <c r="I2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(I1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>499738.08442906576</v>
-      </c>
-      <c r="J2" s="4">
+        <v>531519.75640138413</v>
+      </c>
+      <c r="J2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(J1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>517434.94048442901</v>
-      </c>
-      <c r="K2" s="4">
+        <v>550342.07335640129</v>
+      </c>
+      <c r="K2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(K1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>535131.79653979233</v>
-      </c>
-      <c r="L2" s="4">
+        <v>569164.39031141868</v>
+      </c>
+      <c r="L2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(L1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>552828.65259515576</v>
-      </c>
-      <c r="M2" s="4">
+        <v>587986.70726643596</v>
+      </c>
+      <c r="M2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(M1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>566140.91446366778</v>
-      </c>
-      <c r="N2" s="4">
+        <v>602145.58449826983</v>
+      </c>
+      <c r="N2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(N1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>579453.17633217992</v>
-      </c>
-      <c r="O2" s="4">
+        <v>616304.46173010382</v>
+      </c>
+      <c r="O2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(O1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>592765.43820069206</v>
-      </c>
-      <c r="P2" s="4">
+        <v>630463.3389619377</v>
+      </c>
+      <c r="P2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(P1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>606077.70006920421</v>
-      </c>
-      <c r="Q2" s="4">
+        <v>644622.21619377169</v>
+      </c>
+      <c r="Q2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(Q1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>619389.96193771623</v>
-      </c>
-      <c r="R2" s="4">
+        <v>658781.09342560556</v>
+      </c>
+      <c r="R2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(R1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>622691.61418685119</v>
-      </c>
-      <c r="S2" s="4">
+        <v>662292.71972318343</v>
+      </c>
+      <c r="S2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(S1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>625993.26643598615</v>
-      </c>
-      <c r="T2" s="4">
+        <v>665804.3460207613</v>
+      </c>
+      <c r="T2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(T1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>629294.91868512111</v>
-      </c>
-      <c r="U2" s="4">
+        <v>669315.97231833916</v>
+      </c>
+      <c r="U2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(U1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="V2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="V2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(V1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="W2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="W2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(W1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="X2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="X2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(X1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="Y2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="Y2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(Y1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="Z2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="Z2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(Z1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AA2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AA2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AA1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AB2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AB2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AB1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AC2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AC2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AC1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AD2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AD2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AD1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AE2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AE2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AE1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AF2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AF2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AF1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AG2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AG2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AG1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AH2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AH2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AH1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AI2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AI2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AI1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
-      </c>
-      <c r="AJ2" s="4">
+        <v>672827.59861591703</v>
+      </c>
+      <c r="AJ2" s="11">
         <f>$C$2*INDEX(Calcs!$B$19:$B$52,MATCH(AJ1,Calcs!$A$19:$A$52,0),1)</f>
-        <v>632596.57093425607</v>
+        <v>672827.59861591703</v>
       </c>
       <c r="AK2" s="4"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
